--- a/3_Results/34_ResultsART/art_three_way_tables.xlsx
+++ b/3_Results/34_ResultsART/art_three_way_tables.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Y2 by X3 Individual" sheetId="1" r:id="rId1"/>
     <sheet name="Y2 by Z3 Spillover" sheetId="2" r:id="rId2"/>
-    <sheet name="Y2 by X3 Overall" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -561,7 +560,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -616,19 +615,19 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.924</v>
+        <v>0.901</v>
       </c>
       <c r="D2">
-        <v>0.891</v>
+        <v>0.784</v>
       </c>
       <c r="E2">
-        <v>0.959</v>
+        <v>0.968</v>
       </c>
       <c r="F2">
-        <v>0.034</v>
+        <v>0.063</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -652,10 +651,10 @@
         <v>0.968</v>
       </c>
       <c r="F3">
-        <v>0.07000000000000001</v>
+        <v>0.068</v>
       </c>
       <c r="G3">
-        <v>67</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4">
@@ -679,37 +678,37 @@
         <v>0.968</v>
       </c>
       <c r="F4">
-        <v>0.07000000000000001</v>
+        <v>0.068</v>
       </c>
       <c r="G4">
-        <v>70</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Treatment</t>
+          <t>Control</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Missing</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.929</v>
+        <v>0.881</v>
       </c>
       <c r="D5">
-        <v>0.846</v>
+        <v>0.756</v>
       </c>
       <c r="E5">
-        <v>1.016</v>
+        <v>0.968</v>
       </c>
       <c r="F5">
-        <v>0.047</v>
+        <v>0.079</v>
       </c>
       <c r="G5">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -720,188 +719,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6">
-        <v>0.929</v>
+        <v>0.914</v>
       </c>
       <c r="D6">
         <v>0.846</v>
       </c>
       <c r="E6">
-        <v>1.016</v>
+        <v>0.99</v>
       </c>
       <c r="F6">
-        <v>0.047</v>
+        <v>0.059</v>
       </c>
       <c r="G6">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Treatment</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Control</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C2">
-        <v>25</v>
-      </c>
-      <c r="D2">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>39</v>
-      </c>
-      <c r="F2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Control</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C3">
-        <v>1591</v>
-      </c>
-      <c r="D3">
-        <v>231</v>
-      </c>
-      <c r="E3">
-        <v>1822</v>
-      </c>
-      <c r="F3">
-        <v>4373</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Control</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C4">
-        <v>1616</v>
-      </c>
-      <c r="D4">
-        <v>245</v>
-      </c>
-      <c r="E4">
-        <v>1861</v>
-      </c>
-      <c r="F4">
-        <v>4412</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Control</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
-      <c r="D5">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>44</v>
-      </c>
-      <c r="F5">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Treatment</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C6">
-        <v>27</v>
-      </c>
-      <c r="D6">
         <v>6</v>
-      </c>
-      <c r="E6">
-        <v>33</v>
-      </c>
-      <c r="F6">
-        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -916,16 +750,19 @@
         </is>
       </c>
       <c r="C7">
-        <v>1714</v>
+        <v>0.924</v>
       </c>
       <c r="D7">
-        <v>138</v>
+        <v>0.846</v>
       </c>
       <c r="E7">
-        <v>1852</v>
+        <v>1.016</v>
       </c>
       <c r="F7">
-        <v>4433</v>
+        <v>0.048</v>
+      </c>
+      <c r="G7">
+        <v>109</v>
       </c>
     </row>
     <row r="8">
@@ -940,16 +777,19 @@
         </is>
       </c>
       <c r="C8">
-        <v>1741</v>
+        <v>0.923</v>
       </c>
       <c r="D8">
-        <v>144</v>
+        <v>0.846</v>
       </c>
       <c r="E8">
-        <v>1885</v>
+        <v>1.016</v>
       </c>
       <c r="F8">
-        <v>4452</v>
+        <v>0.049</v>
+      </c>
+      <c r="G8">
+        <v>115</v>
       </c>
     </row>
     <row r="9">
@@ -964,16 +804,16 @@
         </is>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>0.978</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>0.978</v>
       </c>
       <c r="E9">
-        <v>33</v>
-      </c>
-      <c r="F9">
-        <v>221</v>
+        <v>0.978</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
